--- a/biology/Botanique/Senegalia/Senegalia.xlsx
+++ b/biology/Botanique/Senegalia/Senegalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senegalia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, à répartition pantropicale, qui comprend plus de 60 espèces acceptées.
 Ce genre est issu de la division du genre Acacia « sensu lato » en cinq genres : Vachellia, Senegalia, Acaciella, Mariosousa  et    Acacia décidée lors du 17e congrès international de botanique en 2005. 
@@ -512,9 +524,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Senegalia sont des arbustes, des arbres ou des lianes, inermes ou munies de piquants, mais ne présentant pas d'épines stipulaires. Les piquants sont généralement dispersés, mais peuvent aussi être groupés par deux ou trois, en général aux nœuds ou à proximité de ceux-ci. Les feuilles sont bipennées et le pétiole et le rachis primaire présentent des glandes sessiles ou stipitées en position variable. Les fleurs possèdent un nectaire plus ou moins tubulaire placé au-dessous de l'ovaire. Les inflorescences sont des capitules ou des épis, souvent groupés en inflorescences terminales complexes. Les gousses sont en général déhiscentes, se séparant en deux valves à maturité, ou plus rarement indéhiscentes ou se divisant en articles indéhiscents uniséminés. Les graines sont uniseriées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Senegalia sont des arbustes, des arbres ou des lianes, inermes ou munies de piquants, mais ne présentant pas d'épines stipulaires. Les piquants sont généralement dispersés, mais peuvent aussi être groupés par deux ou trois, en général aux nœuds ou à proximité de ceux-ci. Les feuilles sont bipennées et le pétiole et le rachis primaire présentent des glandes sessiles ou stipitées en position variable. Les fleurs possèdent un nectaire plus ou moins tubulaire placé au-dessous de l'ovaire. Les inflorescences sont des capitules ou des épis, souvent groupés en inflorescences terminales complexes. Les gousses sont en général déhiscentes, se séparant en deux valves à maturité, ou plus rarement indéhiscentes ou se divisant en articles indéhiscents uniséminés. Les graines sont uniseriées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 octobre 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 octobre 2019) :
 Senegalia adenocalyx (Brenan &amp; Exell) Kyal. &amp; Boatwr.
 Senegalia albizioides (Pedley) Pedley
 Senegalia alemquerensis (Huber) Seigler &amp; Ebinger
